--- a/10 Year Price Return Ys.xlsx
+++ b/10 Year Price Return Ys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DerekS\My Projects\Python\Meeder1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.172.247\meeder\users\DerekS\My Projects\Python\Meeder1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288462CC-0A42-4B42-B071-12E9DD011B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3597FAF-15C9-41F9-8EDE-83A89D23C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3B66E68-1862-4DC0-82AD-928A754685F4}"/>
   </bookViews>
@@ -437,9 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EABC180-3AB1-45D7-A536-87AEDDB9043F}">
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A760" workbookViewId="0">
+      <selection activeCell="A781" sqref="A781:A790"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6699,6 +6701,70 @@
         <v>45630</v>
       </c>
       <c r="B782">
+        <v>3.9999999999999758E-3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B783">
+        <v>2.0000000000000573E-3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B784">
+        <v>1.9999999999999879E-3</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>45635</v>
+      </c>
+      <c r="B785">
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B786">
+        <v>-1.9999999999999185E-3</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>45637</v>
+      </c>
+      <c r="B787">
+        <v>-4.0000000000000452E-3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>45638</v>
+      </c>
+      <c r="B788">
+        <v>-6.0000000000000331E-3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B789">
+        <v>-8.000000000000021E-3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B790">
         <v>0</v>
       </c>
     </row>
